--- a/src/main/resources/station_code.xlsx
+++ b/src/main/resources/station_code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcw/Develop/Free-Way/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A88373-C99A-2946-97C3-36B64956A5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7228BC-C0E4-6A4F-909D-6C2101A724DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="운영기관_역사_코드정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="1065">
   <si>
     <t>공덕</t>
   </si>
@@ -3231,6 +3231,9 @@
   </si>
   <si>
     <t>925</t>
+  </si>
+  <si>
+    <t>K188</t>
   </si>
 </sst>
 </file>
@@ -3592,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScale="150" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="K462" sqref="K462"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="125" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7681,7 +7684,7 @@
         <v>1017</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>618</v>
+        <v>1064</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>61</v>
